--- a/Kontext Sätze/faz_neutralforms_results.xlsx
+++ b/Kontext Sätze/faz_neutralforms_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
   <si>
     <t>x</t>
   </si>
@@ -65,49 +65,226 @@
     <t>16</t>
   </si>
   <si>
-    <t>Und wenn sogar schon Vorstandsvorsitzende in Sneakern auftreten – dann darf auch ein Formel-1-Weltmeister einen dicken blauen Burberry-Rock über der Hose tragen.</t>
-  </si>
-  <si>
-    <t>Über den Vorstandsvorsitzenden aber nicht.</t>
-  </si>
-  <si>
-    <t>Das ist das Ergebnis einer Analyse der Beiträge von Vorstandsvorsitzenden von Dax-Konzern in den sozialen Medien, die die Arbeitsplatz-Börse Indeed durchgeführt hat und die der F.A.Z. vorab vorliegt.</t>
-  </si>
-  <si>
-    <t>In einer Zeit, wo vor allem in den sozialen Netzwerken sehr schnell aus kleinen Geschichten ein großer Shitstorm entstehen kann, ist es schon richtig, als Parteivorsitzender und Kanzlerkandidat Aufregung möglichst zu vermeiden.</t>
-  </si>
-  <si>
-    <t>Gut vierzig Millionen Protestler waren es aber wohl selbst nach Ansicht des stellvertretenden CDU-Fraktionsvorsitzenden Arnold Vaatz nicht.</t>
-  </si>
-  <si>
-    <t>Der ehemalige Bundestagspräsident mahnte seine Partei zugleich, keine Parteimitglieder zu verprellen, "die das Gendersternchen nicht mitsprechen wollen und können", wie er dem "Zeitmagazin" (Donnerstag) sagte.</t>
-  </si>
-  <si>
-    <t>Esken und der stellvertretende Parteivorsitzende Kevin Kühnert gingen daraufhin auf die Szene zu – und kritisierten dabei indirekt auch Thierse deutlich.</t>
-  </si>
-  <si>
-    <t>Die Schlacht ist längst verloren Sammelhort solcher sprachpuristischen Anschauungen ist seit vielen Jahren der mitgliederstarke, von dem Dortmunder Statistikprofessor Walter Krämer angeführte Verein Deutsche Sprache (VDS).</t>
-  </si>
-  <si>
-    <t>Dem elfköpfigen VDS-Vorstand gehören übrigens lediglich zwei Frauen an, eine davon ist AfD-Mitglied; das Alter der meisten Vorstandsmitglieder liegt jenseits der siebzig – ein Indiz dafür, dass das Streben, das "gute" Deutsch zu bewahren, nicht selten auch eine Generationen- und Geschlechterfrage ist.</t>
-  </si>
-  <si>
-    <t>Eine absichtlich falsch schreibende Verwaltung – welche Schülerin, welcher Schüler soll das begreifen?</t>
-  </si>
-  <si>
-    <t>Ralf Scholl, der Landesvorsitzende des Philologen-Verbandes, nannte Schoppers Empfehlung eine "Sprachvergewaltigung".</t>
-  </si>
-  <si>
-    <t>Zuvor hatten Gremienmitglieder massiven Unmut über die Tendenz zum gesprochenen Genderstern geäußert und eine "Leitungsentscheidung" zu dem Thema gefordert.</t>
-  </si>
-  <si>
-    <t>Der frühere Bundesverteidigungsminister Franz Josef Jung (CDU) und andere Fernsehratsmitglieder kritisierten, eine übergroße Mehrheit der Bevölkerung lehne die Verwendung des Gendersterns ab.</t>
-  </si>
-  <si>
-    <t>Sie hatte offensichtlich die Absicht, einen Scherz zu machen, nicht die, die anwesenden Frauen zu diskriminieren, aber mit derselben Formulierung, jedoch anderem Tonfall und anderer Mimik, wäre das leicht möglich gewesen.</t>
-  </si>
-  <si>
-    <t>Aber die Texte schreibenden liberalen Eliten interessieren sich wenig dafür, was die Lesenden über ein Sternchen und seine normativen Gehalte denken.</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Über "Studierende" empören sich nach wie vor viele Menschen.</t>
+  </si>
+  <si>
+    <t>Piloten und Mitglieder des Bordpersonals können unabhängig von ihrer geschlechtlichen Identität eine Handtasche tragen, sich die Fingernägel lackieren oder ihre Haare zum Dutt binden.</t>
+  </si>
+  <si>
+    <t>Es gebe für ihn kein Recht, "in Ruhe gelassen zu werden", hatte der Vorsitzende Richter erklärt.</t>
+  </si>
+  <si>
+    <t>Darin wird beispielsweise auf neutrale Ansprachen wie "Führungskraft" anstatt "Chef" verwiesen oder aber auch auf einen Unterstrich zwischen männlicher und weiblicher Form, also beispielsweise Audianer_innen.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende Richter Christoph Hellerbrand betonte, dass der VW-Mitarbeiter nicht zur aktiven Nutzung des Leitfadens verpflichtet sei, weil dieser sich nur an Audi-Beschäftigte richte.</t>
+  </si>
+  <si>
+    <t>Audi teilte damals mit, künftig gendersensible Formulierungen in der internen und externen schriftlichen Kommunikation zu verwenden, beispielsweise mit neutralen Ansprachen wie "Führungskraft" anstatt "Chef" oder aber auch mithilfe eines Unterstrichs zwischen männlicher und weiblicher Form, also beispielsweise Audianer_innen.</t>
+  </si>
+  <si>
+    <t>Zur gütlichen Einigung schlug der Vorsitzende Richter Christoph Hellerbrand vor, den Kläger künftig in herkömmlicher Sprache anzuschreiben.</t>
+  </si>
+  <si>
+    <t>Insgesamt neun Dax-Mitglieder gaben an, in diesen Bereichen zu gendern.</t>
+  </si>
+  <si>
+    <t>Zudem empfiehlt Audi die Verwendung von Partizipformen wie "Mitarbeitende" und "Teilnehmende" oder von Relativsätzen: "Alle, die teilnehmen".</t>
+  </si>
+  <si>
+    <t>In unserer Studie waren dies neben dem Geschlecht und dem Lebensalter der Versuchspersonen die Einstellung zum Thema "Gendern".</t>
+  </si>
+  <si>
+    <t>Mit anderen Worten, ein Male Bias bei generischer Verwendung des Maskulinums und ein Female Bias bei Verwendung der Gendersternform traten bei unseren insgesamt 561 jungen und älteren Versuchspersonen gleichermaßen auf.</t>
+  </si>
+  <si>
+    <t>Außerdem ist zu beachten, dass sich bisherige Befunde zur Altersabhängigkeit auf die Bereitschaft zu "gendern" beziehen, während es in unseren Experimenten darum geht, welche Gedankeninhalte die uns interessierenden Formen (vornehmlich das generisch verwandte Maskulinum und der Genderstern) von Versuchspersonen auslösen.</t>
+  </si>
+  <si>
+    <t>Um diesem Problem zu begegnen, haben wir die Versuchspersonen im Vorfeld explizit darüber informiert, dass mit den verwendeten Formen (generisches Maskulinum und Gendersternform) Männer und Frauen gleichermaßen gemeint sind.</t>
+  </si>
+  <si>
+    <t>Immerhin wurden die Sätze von circa 85 Prozent der Versuchspersonen verstanden, wenn nach der Gendersternvariante von Männern oder nach dem generischen Maskulinum von Frauen die Rede war.</t>
+  </si>
+  <si>
+    <t>Denn auf der Berliner Demo gegen die Corona-Weltverschwörung sollen auch progressive Kräfte mitmarschiert sein, vielleicht sogar SPD-Mitglieder, jedenfalls ehemalige.</t>
+  </si>
+  <si>
+    <t>Das übrige politische Berlin geriet wegen der Corona-Leugner jedoch so in Wallung, als hätte halb Deutschland vor dem Brandenburger Tor geschrien, das Coronavirus, das es gar nicht gebe, sei von Bill Gates erschaffen worden, um die Microsoft-Kundschaft auszurotten.</t>
+  </si>
+  <si>
+    <t>Wir stecken schließlich in einer "Dauerwelle", wie Frank Ulrich Montgomery sagte, der Vorsitzende des Weltärztebundes, der uns irgendwie an einen Panzergeneral erinnert.</t>
+  </si>
+  <si>
+    <t>Unter den Beispielen für unökonomische Bildungen mit kommunikativ überflüssigem *innen befinden sich Bürger(*innen)steig, Mitglieder(*innen)befragung, und, hypercharakterisierend: Kanzlerinkandidatin.</t>
+  </si>
+  <si>
+    <t>Hier ist ein Alternativ-Sexus mit den Ausdrücken Freund*innen, Täter*innen, Mitglieder*innen, Reiserückkehrer*innen schlicht und einfach kommunikativ unerheblich und daher überflüssig.</t>
+  </si>
+  <si>
+    <t>So wäre es vielleicht erhellend zu wissen, dass bei deutschen Begriffen wie Student und Patient, die aus lateinischen Parti-zipien auf -ens, -entis entlehnt sind, eine Differenzierung in Student/Studentin, Patient/Patientin oder gar der Ersatz von Studenten durch Studierende insofern ohne Grundlage ist, als die lateinischen Partizipien -ens, -entis Unisex-Bildungen waren, also sowohl Maskulinum als auch Femininum als auch Neutrum bezeichneten.</t>
+  </si>
+  <si>
+    <t>In einem Schreiben an die SPD-Ko-Vorsitzende Saskia Esken bat der frühere DDR-Bürgerrechtler darum, ihm öffentlich mitzuteilen, ob sein "Bleiben in der gemeinsamen Partei weiterhin wünschenswert oder eher schädlich" sei, wie der "Tagesspiegel" berichtet hatte.</t>
+  </si>
+  <si>
+    <t>Die Katholische Studierende Jugend schreibt "Gott*".</t>
+  </si>
+  <si>
+    <t>Tausende lasen Beispielsätze mit Pluralformen wie "Studenten", "myplaceholder" oder "Studierende" und sollten den Menschen Namen geben, männliche oder weibliche.</t>
+  </si>
+  <si>
+    <t>Aber verschwindet das Problem durch "Studierende"?</t>
+  </si>
+  <si>
+    <t>Ergebnis: Bei "Studierende" denken immer noch 60 Prozent an Männer, warum auch immer.</t>
+  </si>
+  <si>
+    <t>Sowohl der Vorsitzende als auch der Vertreter des kooptierten Luxemburgs stimmen nicht mit.</t>
+  </si>
+  <si>
+    <t>18 Mitglieder kommen aus Deutschland, jeweils neun aus Österreich und der Schweiz.</t>
+  </si>
+  <si>
+    <t>Genderstern wird 2022 wieder Thema sein Die deutschen Mitglieder werden nach einem KMK-Beschluss von Institutionen delegiert.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende des Rates ist seit 2017 der frühere Staatssekretär im niedersächsischen Wissenschaftsministerium Josef Lange, ein Politprofi, der sich durch nichts und niemanden aus der Ruhe bringen lässt und nicht nur Kultusministerkonferenz und Wissenschaftsrat von innen kennt.</t>
+  </si>
+  <si>
+    <t>"Mein Ziel ist es, dass für den Schulbereich und möglichst für den Hochschulbereich, in dem die künftigen Lehrkräfte ausgebildet werden, sowie für die Rechts- und Verwaltungssprache in Bund, Ländern und Kommunen die amtliche deutsche Rechtschreibung gilt", sagt Lange der F.A.Z. Für die Schulen und Bildungseinrichtungen müssten die Kultusministerkonferenz und damit die Länder die amtliche Rechtschreibung durch entsprechende Erlasse verbindlich machen, für den Rechts- und Verwaltungsbereich das Bundesinnenministerium.</t>
+  </si>
+  <si>
+    <t>Fraktionschef Christophe Castaner, ein ehemaliger Sozialist, hatte sich als LREM-Parteichef stets an die "Mitglieder und Mitgliederinnen" gewandt und seine Anschreiben mit genderneutralen Endungen verfasst.</t>
+  </si>
+  <si>
+    <t>Der Vorsitzende des Rats für deutsche Rechtschreibung, Josef Lange, wies gegenüber der F.A.Z. darauf hin, dass das Regelwerk von den staatlichen Stellen beschlossen wurde und für Schule und Verwaltung bindend ist.</t>
+  </si>
+  <si>
+    <t>Das "Rednerpult" ist seither ein "Redepult", aus "Wählern" wurden "Wählende".</t>
+  </si>
+  <si>
+    <t>Allerdings wirbt die Ministerin dafür, Schülerinnen und Schüler verstärkt für eine gendergerechte Sprache zu sensibilisieren: "Gut ist es auch, wenn Lehrkräfte gemeinsam mit ihren Schülerinnen und Schülern auch eine Schreibweise bezüglich der Sonderformen beim Gendern vereinbaren", sagte Schopper.</t>
+  </si>
+  <si>
+    <t>Im Bildungsplan aus dem Jahr 2016 werde durchgängig die weibliche und die männliche Form verwendet; wo immer möglich, würden Paarformulierungen wie "Lehrerinnen und Lehrer" oder neutrale Formen wie "Lehrkräfte" verwendet.</t>
+  </si>
+  <si>
+    <t>"Über beide", sagte der CDU-Vorsitzende und Kanzlerkandidat der Union, entschied sich aber dann doch für die Frauen.</t>
+  </si>
+  <si>
+    <t>Bevor sich zu Beginn der Sommerferien in Stuttgart eine Debatte über die Sinnhaftigkeit geschlechtergerechter Sprache entwickelte, hatte Kretschmann schon deutlich gemacht, dass er solche Debatten – anders als die Mehrheit der Mitglieder und Mandatsträger seiner Partei – für verzichtbar hält.</t>
+  </si>
+  <si>
+    <t>Beim ZDF soll es auch künftig keine verbindlichen Regeln geben, ob das Gendersternchen bei der Moderation von Sendungen mitgesprochen wird.</t>
+  </si>
+  <si>
+    <t>Die Vertreterin des Deutschen Journalisten-Verbandes (DJV), Katrin Kroemer, hielt dagegen, es müsse es den Verantwortlichen freigestellt bleiben, ob sie bei einer Moderation gendern wollten oder nicht: "Es darf keine Agitation dagegen geben, schon gar nicht durch Intendanten-Verordnung."</t>
+  </si>
+  <si>
+    <t>Lutz Götze von der Universität des Saarlandes hat die Mitglieder des PEN-Zentrums Deutschland nach ihrer Meinung dazu befragt.</t>
+  </si>
+  <si>
+    <t>Er hat rund vierzig Mitglieder aus Deutschland, Österreich, der Schweiz, dem Fürstentum Liechtenstein, der Autonomen Provinz Bozen-Südtirol und der Deutschsprachigen Gemeinschaft Belgiens.</t>
+  </si>
+  <si>
+    <t>Gerade hat der Vorstand der Deutschen Gesellschaft für Sprachwissenschschaft (DGfS), des größten und mit Abstand mächtigsten Berufsverbandes der Disziplin, einen Blog gestartet, in dem die Mitglieder sich zum Antrag auf Änderung der Satzung im Sinne einer "geschlechterinklusiven Schreibung" – das ist eine konsequente Schreibung mit Genderstern – äußern sollen.</t>
+  </si>
+  <si>
+    <t>Wo immer möglich, bietet sich die Pluralisierung an, Schreibende etwa anstelle von Autorinnen und Autoren, Pflegende für Pfleger und Pflegerinnen, mit dem Vorteil: Divers ist darin immer schon enthalten.</t>
   </si>
 </sst>
 </file>
@@ -169,7 +346,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -177,7 +354,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -185,7 +362,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -193,7 +370,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -201,7 +378,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -209,7 +386,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -217,7 +394,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -225,7 +402,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -233,7 +410,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -241,7 +418,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -249,7 +426,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -257,7 +434,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14">
@@ -265,7 +442,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -273,7 +450,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">
@@ -281,7 +458,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -289,7 +466,255 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
         <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
